--- a/data/trans_orig/P8_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E787A9-6E30-4103-A583-D2BE9459C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAEFA15-1734-424F-A307-5170D0943A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{082DFB74-0954-49DC-B197-E6FBFB660F87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30EA2C91-EFC5-41A9-AB89-DE1488402584}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>12,96%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,04%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1156 +140,1162 @@
     <t>13,92%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80C1C0D-98CA-48A6-A740-220B5ECB1211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DEC70-353C-4B1C-B499-2A0F19501300}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2016,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2037,13 @@
         <v>498100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>444</v>
@@ -2046,13 +2052,13 @@
         <v>448736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -2061,13 +2067,13 @@
         <v>946837</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2129,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2138,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>203</v>
@@ -2150,13 +2156,13 @@
         <v>220307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -2165,13 +2171,13 @@
         <v>344920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,10 +2195,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>705</v>
@@ -2201,13 +2207,13 @@
         <v>748086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1479</v>
@@ -2216,13 +2222,13 @@
         <v>1585273</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2296,13 @@
         <v>105171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -2305,13 +2311,13 @@
         <v>170013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -2320,13 +2326,13 @@
         <v>275184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2347,13 @@
         <v>573338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2356,13 +2362,13 @@
         <v>513828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1061</v>
@@ -2371,7 +2377,7 @@
         <v>1087166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>82</v>
@@ -2630,13 +2636,13 @@
         <v>1241913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2657,13 @@
         <v>2820228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2538</v>
@@ -2666,28 +2672,28 @@
         <v>2593600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5285</v>
       </c>
       <c r="N20" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2743,7 +2749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94F734B-7D67-40BF-A9EC-FC27EAB7132B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B094739F-2FBB-4EFD-A002-256A190834DA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,13 +2894,13 @@
         <v>17913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2903,13 +2909,13 @@
         <v>36330</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2918,13 +2924,13 @@
         <v>54244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2945,13 @@
         <v>97852</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2954,13 +2960,13 @@
         <v>75575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -2969,13 +2975,13 @@
         <v>173426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3049,13 @@
         <v>96615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -3058,13 +3064,13 @@
         <v>150945</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>229</v>
@@ -3073,13 +3079,13 @@
         <v>247560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3100,13 @@
         <v>491089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -3109,13 +3115,13 @@
         <v>434200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>874</v>
@@ -3124,13 +3130,13 @@
         <v>925289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,7 +3192,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3198,13 +3204,13 @@
         <v>167297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -3213,13 +3219,13 @@
         <v>261421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>390</v>
@@ -3228,13 +3234,13 @@
         <v>428719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3255,13 @@
         <v>850650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>700</v>
@@ -3264,13 +3270,13 @@
         <v>769676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1485</v>
@@ -3279,13 +3285,13 @@
         <v>1620325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3347,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3353,13 +3359,13 @@
         <v>94890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -3368,13 +3374,13 @@
         <v>179727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -3383,13 +3389,13 @@
         <v>274618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3410,13 @@
         <v>662733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -3419,13 +3425,13 @@
         <v>597447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1148</v>
@@ -3434,13 +3440,13 @@
         <v>1260179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3514,13 @@
         <v>156047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>271</v>
@@ -3523,13 +3529,13 @@
         <v>287291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>413</v>
@@ -3538,13 +3544,13 @@
         <v>443338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3565,13 @@
         <v>787771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>732</v>
@@ -3574,28 +3580,28 @@
         <v>764610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1497</v>
       </c>
       <c r="N17" s="7">
-        <v>1552381</v>
+        <v>1552382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3643,7 @@
         <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>1995719</v>
+        <v>1995720</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3663,13 +3669,13 @@
         <v>532763</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>847</v>
@@ -3678,13 +3684,13 @@
         <v>915715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1331</v>
@@ -3693,13 +3699,13 @@
         <v>1448478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3720,13 @@
         <v>2890095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2450</v>
@@ -3729,13 +3735,13 @@
         <v>2641507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>5172</v>
@@ -3744,13 +3750,13 @@
         <v>5531602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFEC758-6821-4A87-9B2B-CF68FF16BC4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BD5B0F-D946-4429-8112-80458F89B278}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,13 +3957,13 @@
         <v>27637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3966,13 +3972,13 @@
         <v>28397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -3981,13 +3987,13 @@
         <v>56034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4008,13 @@
         <v>88909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -4017,13 +4023,13 @@
         <v>84963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -4032,13 +4038,13 @@
         <v>173872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4112,13 @@
         <v>77261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -4121,13 +4127,13 @@
         <v>142027</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -4136,13 +4142,13 @@
         <v>219288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4163,13 @@
         <v>480993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -4172,13 +4178,13 @@
         <v>417452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -4187,13 +4193,13 @@
         <v>898445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4255,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4261,13 +4267,13 @@
         <v>146423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -4276,13 +4282,13 @@
         <v>252746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4291,13 +4297,13 @@
         <v>399169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4318,13 @@
         <v>876008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>762</v>
@@ -4327,13 +4333,13 @@
         <v>790167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1567</v>
@@ -4342,13 +4348,13 @@
         <v>1666175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4410,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4416,13 +4422,13 @@
         <v>106025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4431,13 +4437,13 @@
         <v>168828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4446,13 +4452,13 @@
         <v>274853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>653527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -4482,13 +4488,13 @@
         <v>616183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -4497,13 +4503,13 @@
         <v>1269710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4577,13 @@
         <v>134635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -4586,13 +4592,13 @@
         <v>216673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -4601,13 +4607,13 @@
         <v>351308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4628,13 @@
         <v>802932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>779</v>
@@ -4637,13 +4643,13 @@
         <v>827106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1574</v>
@@ -4652,13 +4658,13 @@
         <v>1630038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4732,13 @@
         <v>491981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -4741,13 +4747,13 @@
         <v>808672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -4756,13 +4762,13 @@
         <v>1300652</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4783,13 @@
         <v>2902369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>2638</v>
@@ -4792,13 +4798,13 @@
         <v>2735870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>5381</v>
@@ -4807,13 +4813,13 @@
         <v>5638240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57B76F-A5AC-40C3-98BB-A24AB7B9CB33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433550B9-91B7-41D3-816D-D2F22D04F48F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,13 +5020,13 @@
         <v>25702</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5029,13 +5035,13 @@
         <v>36263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5044,13 +5050,13 @@
         <v>61964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5071,13 @@
         <v>76280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -5080,13 +5086,13 @@
         <v>94470</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -5095,13 +5101,13 @@
         <v>170751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>88332</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>266</v>
@@ -5184,13 +5190,13 @@
         <v>128180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>383</v>
@@ -5202,10 +5208,10 @@
         <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5226,13 @@
         <v>461491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>732</v>
@@ -5235,13 +5241,13 @@
         <v>491787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -5253,10 +5259,10 @@
         <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5318,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5324,13 +5330,13 @@
         <v>174225</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -5339,13 +5345,13 @@
         <v>241531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -5354,13 +5360,13 @@
         <v>415756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5381,13 @@
         <v>865023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1105</v>
@@ -5390,13 +5396,13 @@
         <v>817943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>1923</v>
@@ -5405,13 +5411,13 @@
         <v>1682966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5473,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5479,13 +5485,13 @@
         <v>133888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -5494,13 +5500,13 @@
         <v>171154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>414</v>
@@ -5509,13 +5515,13 @@
         <v>305041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5536,13 @@
         <v>594066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>775</v>
@@ -5545,13 +5551,13 @@
         <v>703217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>1308</v>
@@ -5560,13 +5566,13 @@
         <v>1297283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5640,13 @@
         <v>149452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -5649,13 +5655,13 @@
         <v>279918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -5664,13 +5670,13 @@
         <v>429370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5691,13 @@
         <v>815951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>1118</v>
@@ -5700,28 +5706,28 @@
         <v>869884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>1932</v>
       </c>
       <c r="N17" s="7">
-        <v>1685834</v>
+        <v>1685835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5769,7 @@
         <v>2567</v>
       </c>
       <c r="N18" s="7">
-        <v>2115204</v>
+        <v>2115205</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5789,13 +5795,13 @@
         <v>571599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1476</v>
@@ -5804,13 +5810,13 @@
         <v>857045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>2104</v>
@@ -5819,13 +5825,13 @@
         <v>1428644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5846,13 @@
         <v>2812811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>3889</v>
@@ -5858,10 +5864,10 @@
         <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>6636</v>
@@ -5870,13 +5876,13 @@
         <v>5790112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +5938,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P8_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAEFA15-1734-424F-A307-5170D0943A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D10EB24-A7C7-4EC6-BDFA-DD7E806DE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30EA2C91-EFC5-41A9-AB89-DE1488402584}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{635AC2D5-5B4F-40A3-9149-08AA16B7D48F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1215 +77,1248 @@
     <t>12,96%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
     <t>76,31%</t>
   </si>
   <si>
@@ -1293,9 +1326,6 @@
   </si>
   <si>
     <t>78,05%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DEC70-353C-4B1C-B499-2A0F19501300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCBE83-86BD-4DCF-AD12-74AD411E71A7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2326,13 +2356,13 @@
         <v>275184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2377,13 @@
         <v>573338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -2362,13 +2392,13 @@
         <v>513828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1061</v>
@@ -2377,13 +2407,13 @@
         <v>1087166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2481,13 @@
         <v>131029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -2466,13 +2496,13 @@
         <v>235600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -2481,13 +2511,13 @@
         <v>366629</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2532,13 @@
         <v>811193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -2517,13 +2547,13 @@
         <v>803012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -2532,13 +2562,13 @@
         <v>1614205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2636,13 @@
         <v>456316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>759</v>
@@ -2621,13 +2651,13 @@
         <v>785598</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1226</v>
@@ -2636,13 +2666,13 @@
         <v>1241913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,16 +2684,16 @@
         <v>2747</v>
       </c>
       <c r="D20" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2538</v>
@@ -2672,13 +2702,13 @@
         <v>2593600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5285</v>
@@ -2687,13 +2717,13 @@
         <v>5413828</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2735,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2749,7 +2779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B094739F-2FBB-4EFD-A002-256A190834DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78BD673-D943-42E6-A11E-9DA0705B44B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2924,13 @@
         <v>17913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2909,13 +2939,13 @@
         <v>36330</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2924,13 +2954,13 @@
         <v>54244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2975,13 @@
         <v>97852</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2960,13 +2990,13 @@
         <v>75575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -2975,13 +3005,13 @@
         <v>173426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3079,13 @@
         <v>96615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -3064,13 +3094,13 @@
         <v>150945</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>229</v>
@@ -3079,13 +3109,13 @@
         <v>247560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3130,13 @@
         <v>491089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -3115,13 +3145,13 @@
         <v>434200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>874</v>
@@ -3130,13 +3160,13 @@
         <v>925289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3234,13 @@
         <v>167297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -3219,13 +3249,13 @@
         <v>261421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>390</v>
@@ -3234,13 +3264,13 @@
         <v>428719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3285,13 @@
         <v>850650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>700</v>
@@ -3270,13 +3300,13 @@
         <v>769676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1485</v>
@@ -3285,13 +3315,13 @@
         <v>1620325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3389,13 @@
         <v>94890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -3374,13 +3404,13 @@
         <v>179727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -3389,13 +3419,13 @@
         <v>274618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3440,13 @@
         <v>662733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -3425,13 +3455,13 @@
         <v>597447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1148</v>
@@ -3502,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3547,10 +3577,10 @@
         <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3595,13 @@
         <v>787771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>732</v>
@@ -3580,28 +3610,28 @@
         <v>764610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1497</v>
       </c>
       <c r="N17" s="7">
-        <v>1552382</v>
+        <v>1552381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3673,7 @@
         <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>1995720</v>
+        <v>1995719</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3669,13 +3699,13 @@
         <v>532763</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>847</v>
@@ -3684,13 +3714,13 @@
         <v>915715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>1331</v>
@@ -3699,13 +3729,13 @@
         <v>1448478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3750,13 @@
         <v>2890095</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2450</v>
@@ -3735,13 +3765,13 @@
         <v>2641507</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>5172</v>
@@ -3750,13 +3780,13 @@
         <v>5531602</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BD5B0F-D946-4429-8112-80458F89B278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4D64D-07D3-4EE0-A5FB-395976CCF204}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3987,13 @@
         <v>27637</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3972,13 +4002,13 @@
         <v>28397</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -3987,13 +4017,13 @@
         <v>56034</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4038,13 @@
         <v>88909</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -4148,7 +4178,7 @@
         <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4193,13 @@
         <v>480993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -4178,13 +4208,13 @@
         <v>417452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -4193,13 +4223,13 @@
         <v>898445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4297,13 @@
         <v>146423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -4282,13 +4312,13 @@
         <v>252746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4297,13 +4327,13 @@
         <v>399169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4348,13 @@
         <v>876008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>762</v>
@@ -4333,13 +4363,13 @@
         <v>790167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1567</v>
@@ -4348,13 +4378,13 @@
         <v>1666175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4452,13 @@
         <v>106025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4437,13 +4467,13 @@
         <v>168828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4452,13 +4482,13 @@
         <v>274853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4503,13 @@
         <v>653527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -4488,13 +4518,13 @@
         <v>616183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1186</v>
@@ -4503,13 +4533,13 @@
         <v>1269710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4577,13 +4607,13 @@
         <v>134635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -4592,13 +4622,13 @@
         <v>216673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>317</v>
@@ -4607,13 +4637,13 @@
         <v>351308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4658,13 @@
         <v>802932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>779</v>
@@ -4643,13 +4673,13 @@
         <v>827106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1574</v>
@@ -4658,13 +4688,13 @@
         <v>1630038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4762,13 @@
         <v>491981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -4747,13 +4777,13 @@
         <v>808672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>1188</v>
@@ -4762,13 +4792,13 @@
         <v>1300652</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4813,13 @@
         <v>2902369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>2638</v>
@@ -4798,13 +4828,13 @@
         <v>2735870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>5381</v>
@@ -4813,13 +4843,13 @@
         <v>5638240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433550B9-91B7-41D3-816D-D2F22D04F48F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620A57FB-F447-43BD-8107-E03CB3B76FB3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5050,13 @@
         <v>25702</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5035,13 +5065,13 @@
         <v>36263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -5050,13 +5080,13 @@
         <v>61964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5101,13 @@
         <v>76280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -5086,13 +5116,13 @@
         <v>94470</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -5101,13 +5131,13 @@
         <v>170751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5205,13 @@
         <v>88332</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>266</v>
@@ -5190,13 +5220,13 @@
         <v>128180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>383</v>
@@ -5205,13 +5235,13 @@
         <v>216512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5256,13 @@
         <v>461491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>732</v>
@@ -5241,13 +5271,13 @@
         <v>491787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -5256,13 +5286,13 @@
         <v>953278</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5360,13 @@
         <v>174225</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -5345,13 +5375,13 @@
         <v>241531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -5360,13 +5390,13 @@
         <v>415756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5411,13 @@
         <v>865023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>1105</v>
@@ -5396,13 +5426,13 @@
         <v>817943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1923</v>
@@ -5411,13 +5441,13 @@
         <v>1682966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5515,13 @@
         <v>133888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -5500,13 +5530,13 @@
         <v>171154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>414</v>
@@ -5515,13 +5545,13 @@
         <v>305041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5566,13 @@
         <v>594066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>775</v>
@@ -5551,13 +5581,13 @@
         <v>703217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>1308</v>
@@ -5566,13 +5596,13 @@
         <v>1297283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5640,13 +5670,13 @@
         <v>149452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -5655,13 +5685,13 @@
         <v>279918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -5670,13 +5700,13 @@
         <v>429370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5721,13 @@
         <v>815951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1118</v>
@@ -5706,13 +5736,13 @@
         <v>869884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1932</v>
@@ -5721,13 +5751,13 @@
         <v>1685835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5825,13 @@
         <v>571599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>1476</v>
@@ -5810,13 +5840,13 @@
         <v>857045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>2104</v>
@@ -5825,13 +5855,13 @@
         <v>1428644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5876,13 @@
         <v>2812811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>3889</v>
@@ -5861,13 +5891,13 @@
         <v>2977301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>6636</v>
@@ -5876,13 +5906,13 @@
         <v>5790112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,7 +5968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
